--- a/xxxxx005_RPC/307_RPC_10_RECORD_MARKING_STANDARD.xlsx
+++ b/xxxxx005_RPC/307_RPC_10_RECORD_MARKING_STANDARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\xxxxx005_RPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C112B8-CB19-4EB6-B00F-76A0F85C0A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41679F3-90CB-420F-965A-46E94BB17E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="19005" windowHeight="12105" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>+0</t>
     <phoneticPr fontId="1"/>
@@ -77,18 +77,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>+8</t>
   </si>
   <si>
-    <t>LENGTH</t>
+    <r>
+      <t>"RPC message" by Yamaoka is licensed under CC BY 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>len</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LAST_FRAG</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -96,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +127,29 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,9 +254,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,6 +271,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,22 +598,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AG6"/>
+  <dimension ref="A2:AG11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="3" max="33" width="1.625" customWidth="1"/>
     <col min="34" max="34" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3"/>
@@ -602,165 +647,173 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10" t="s">
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="9"/>
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="8"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AG7" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="G11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -774,7 +827,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="AE2:AG2 AB2:AC2 B3:AG3 A4:A6" numberStoredAsText="1"/>
   </ignoredErrors>
